--- a/test/unit/data/CreateMarkupFromExcel.xlsx
+++ b/test/unit/data/CreateMarkupFromExcel.xlsx
@@ -5,14 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="4" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="390" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="390" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Comment" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Date" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Number" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Formula" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Umlaute" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Token" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Date" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Number" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Formula" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Umlaute" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="date1" vbProcedure="false">Date!$A$2</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Test converions of data types. Directly and as result of formulas.</t>
   </si>
@@ -55,6 +56,15 @@
   </si>
   <si>
     <t>Displays: 01.31.13</t>
+  </si>
+  <si>
+    <t>regular</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>end</t>
   </si>
   <si>
     <t>value</t>
@@ -242,7 +252,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A14" activeCellId="1" pane="topLeft" sqref="A1 A14"/>
+      <selection activeCell="A14" activeCellId="0" pane="topLeft" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -316,10 +326,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A2:B5"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="2">
+      <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="3">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B5" activeCellId="1" pane="topLeft" sqref="A1 B5"/>
+      <selection activeCell="B5" activeCellId="0" pane="topLeft" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.35"/>
@@ -332,13 +387,13 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.35" outlineLevel="0" r="2">
@@ -346,10 +401,10 @@
         <v>40939</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -363,7 +418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -371,7 +426,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B3" activeCellId="1" pane="topLeft" sqref="A1 B3"/>
+      <selection activeCell="B3" activeCellId="0" pane="topLeft" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -383,13 +438,13 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.6" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.35" outlineLevel="0" r="2">
@@ -397,10 +452,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.35" outlineLevel="0" r="3">
@@ -408,10 +463,10 @@
         <v>1.2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.35" outlineLevel="0" r="4">
@@ -420,10 +475,10 @@
         <v>0.666666666666667</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="5">
@@ -431,10 +486,10 @@
         <v>7.41821149125</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -448,7 +503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -456,7 +511,7 @@
   <dimension ref="A1:C65535"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A6" activeCellId="1" pane="topLeft" sqref="A1 A6"/>
+      <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -466,13 +521,13 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.6" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.35" outlineLevel="0" r="2">
@@ -481,10 +536,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.35" outlineLevel="0" r="3">
@@ -493,10 +548,10 @@
         <v>1.4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.35" outlineLevel="0" r="4">
@@ -505,10 +560,10 @@
         <v>AB</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.35" outlineLevel="0" r="5">
@@ -517,10 +572,10 @@
         <v>40940</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.35" outlineLevel="0" r="6"/>
@@ -536,14 +591,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -552,9 +607,9 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.6" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="1">
       <c r="A1" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/test/unit/data/CreateMarkupFromExcel.xlsx
+++ b/test/unit/data/CreateMarkupFromExcel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="390" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="6" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="661" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Comment" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,7 @@
     <sheet name="Number" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Formula" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Umlaute" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="TwoCellsSepartedBySpace" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="date1" vbProcedure="false">Date!$A$2</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Test converions of data types. Directly and as result of formulas.</t>
   </si>
@@ -125,6 +126,12 @@
   </si>
   <si>
     <t>äöüÄÖÜ</t>
+  </si>
+  <si>
+    <t>cell1</t>
+  </si>
+  <si>
+    <t>cell2</t>
   </si>
 </sst>
 </file>
@@ -326,9 +333,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:B5"/>
+  <dimension ref="A2:B6"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -355,6 +362,7 @@
         <v>12</v>
       </c>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.35" outlineLevel="0" r="6"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -621,4 +629,39 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/test/unit/data/CreateMarkupFromExcel.xlsx
+++ b/test/unit/data/CreateMarkupFromExcel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="6" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="661" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="660" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Comment" sheetId="1" state="visible" r:id="rId2"/>
@@ -139,10 +139,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="DD/MM/YY" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -164,24 +164,43 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border diagonalDown="false" diagonalUp="false">
+  <borders count="3">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -189,64 +208,69 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="22">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+  <cellXfs count="5">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="8">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="FitTableCell" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in FitTableCell" xfId="21" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -258,8 +282,8 @@
   </sheetPr>
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A14" activeCellId="0" pane="topLeft" sqref="A14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -267,52 +291,52 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.6" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>9</v>
       </c>
@@ -320,7 +344,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -333,10 +357,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:B6"/>
+  <dimension ref="A2:B5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -344,12 +368,12 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -357,19 +381,18 @@
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.35" outlineLevel="0" r="6"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.575" bottom="1.575" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -379,49 +402,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B5" activeCellId="0" pane="topLeft" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.35"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5612244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.515306122449"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8673469387755"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5663265306122"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.35" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>40939</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.575" bottom="1.575" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -433,8 +458,8 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B3" activeCellId="0" pane="topLeft" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -444,66 +469,66 @@
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.6" outlineLevel="0" r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.35" outlineLevel="0" r="2">
-      <c r="A2" s="4" t="n">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.35" outlineLevel="0" r="3">
-      <c r="A3" s="4" t="n">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.35" outlineLevel="0" r="4">
-      <c r="A4" s="4" t="n">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
         <f aca="false">1-1/3</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="5">
-      <c r="A5" s="4" t="n">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>7.41821149125</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -516,10 +541,97 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C65535"/>
+  <dimension ref="A1:C65536"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <f aca="false">integer+1</f>
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <f aca="false">float+0.2</f>
+        <v>1.4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="str">
+        <f aca="false">"A" &amp; "B"</f>
+        <v>AB</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <f aca="false">date1+1</f>
+        <v>40940</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -527,71 +639,15 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.6" outlineLevel="0" r="1">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.35" outlineLevel="0" r="2">
-      <c r="A2" s="4" t="n">
-        <f aca="false">integer+1</f>
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.35" outlineLevel="0" r="3">
-      <c r="A3" s="4" t="n">
-        <f aca="false">float+0.2</f>
-        <v>1.4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.35" outlineLevel="0" r="4">
-      <c r="A4" s="1" t="str">
-        <f aca="false">"A" &amp; "B"</f>
-        <v>AB</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.35" outlineLevel="0" r="5">
-      <c r="A5" s="3" t="n">
-        <f aca="false">date1+1</f>
-        <v>40940</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.35" outlineLevel="0" r="6"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.35" outlineLevel="0" r="1048575"/>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -599,15 +655,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -615,50 +671,18 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="1">
-      <c r="A1" s="5" t="s">
-        <v>32</v>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
-  <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
